--- a/doc/ue_Textblock.xlsx
+++ b/doc/ue_Textblock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A1FA7-0EF5-4148-BE1A-C9288E4A29D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4458F2A-A0BB-4AA4-9517-9FC5A071D81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
   <si>
     <t>FShapedGlyphFontAtlasData FSlateFontCache::GetShapedGlyphFontAtlasData( const FShapedGlyphEntry&amp; InShapedGlyph, const FFontOutlineSettings&amp; InOutlineSettings )</t>
   </si>
@@ -535,6 +535,18 @@
   </si>
   <si>
     <t>底层遍历所有文字，相同的ISlateFontTexture和FSlateShaderResource，就是用Batch渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是SImpleTextMode，则可以模拟STextBlock::ComputeDesiredSize的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用FSlateApplication::Get().GetRenderer()-&gt;GetFontMeasureService()-&gt;Measure(GetText(), GetFont())，提前把字符都缓存了，这样子后续就不会加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是ShapedText，目前这部分处理比较复杂，暂没有好办法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -1001,17 +1013,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F54E9DF-E7A4-4196-8086-9394BCF405F5}">
-  <dimension ref="B4"/>
+  <dimension ref="A4:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_Textblock.xlsx
+++ b/doc/ue_Textblock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4458F2A-A0BB-4AA4-9517-9FC5A071D81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C83DB3D-DD69-4F8F-A29B-D6B335B680B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="ShapedText" sheetId="8" r:id="rId8"/>
     <sheet name=" ShapedGlyphToAtlasData" sheetId="10" r:id="rId9"/>
     <sheet name="优化" sheetId="12" r:id="rId10"/>
+    <sheet name="字体相关" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="160">
   <si>
     <t>FShapedGlyphFontAtlasData FSlateFontCache::GetShapedGlyphFontAtlasData( const FShapedGlyphEntry&amp; InShapedGlyph, const FFontOutlineSettings&amp; InOutlineSettings )</t>
   </si>
@@ -547,6 +548,26 @@
   </si>
   <si>
     <t>如果是ShapedText，目前这部分处理比较复杂，暂没有好办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对阿拉伯和泰语支持不好，需要对照实际效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般TextBlock都会维护一个Ufont对象--对应字体，相同的都用一份对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字库的加载是阻塞的IO操作，比较大且耗时比较多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当TextBlock会GC的时候，没有引用的Ufont也会被GC，导致字库删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次创建TextBlock的时候，又导致加载字库，反复就会造成卡顿，所以建议字库要提前缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1013,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F54E9DF-E7A4-4196-8086-9394BCF405F5}">
-  <dimension ref="A4:B13"/>
+  <dimension ref="A4:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1024,32 +1045,35 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>154</v>
       </c>
@@ -1057,6 +1081,49 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E42601-BDAA-4D27-9FB7-43212AE91F05}">
+  <dimension ref="B4:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
